--- a/data/CalibrationSet_NoduleData.xlsx
+++ b/data/CalibrationSet_NoduleData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>Scan Number</t>
   </si>
@@ -69,6 +69,165 @@
   </si>
   <si>
     <t>CT-Training-be010</t>
+  </si>
+  <si>
+    <t>LUNGx-CT001</t>
+  </si>
+  <si>
+    <t>Benign nodule</t>
+  </si>
+  <si>
+    <t>LUNGx-CT002</t>
+  </si>
+  <si>
+    <t>LUNGx-CT003</t>
+  </si>
+  <si>
+    <t>Primary lung cancer</t>
+  </si>
+  <si>
+    <t>LUNGx-CT004</t>
+  </si>
+  <si>
+    <t>LUNGx-CT005</t>
+  </si>
+  <si>
+    <t>LUNGx-CT006</t>
+  </si>
+  <si>
+    <t>LUNGx-CT007</t>
+  </si>
+  <si>
+    <t>LUNGx-CT008</t>
+  </si>
+  <si>
+    <t>LUNGx-CT009</t>
+  </si>
+  <si>
+    <t>LUNGx-CT010</t>
+  </si>
+  <si>
+    <t>LUNGx-CT011</t>
+  </si>
+  <si>
+    <t>LUNGx-CT012</t>
+  </si>
+  <si>
+    <t>LUNGx-CT013</t>
+  </si>
+  <si>
+    <t>LUNGx-CT014</t>
+  </si>
+  <si>
+    <t>LUNGx-CT015</t>
+  </si>
+  <si>
+    <t>LUNGx-CT016</t>
+  </si>
+  <si>
+    <t>LUNGx-CT017</t>
+  </si>
+  <si>
+    <t>LUNGx-CT018</t>
+  </si>
+  <si>
+    <t>LUNGx-CT019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary lung cancer </t>
+  </si>
+  <si>
+    <t>LUNGx-CT020</t>
+  </si>
+  <si>
+    <t>LUNGx-CT021</t>
+  </si>
+  <si>
+    <t>LUNGx-CT022</t>
+  </si>
+  <si>
+    <t>LUNGx-CT023</t>
+  </si>
+  <si>
+    <t>LUNGx-CT024</t>
+  </si>
+  <si>
+    <t>LUNGx-CT025</t>
+  </si>
+  <si>
+    <t>LUNGx-CT026</t>
+  </si>
+  <si>
+    <t>LUNGx-CT027</t>
+  </si>
+  <si>
+    <t>LUNGx-CT028</t>
+  </si>
+  <si>
+    <t>LUNGx-CT029</t>
+  </si>
+  <si>
+    <t>LUNGx-CT030</t>
+  </si>
+  <si>
+    <t>LUNGx-CT031</t>
+  </si>
+  <si>
+    <t>LUNGx-CT032</t>
+  </si>
+  <si>
+    <t>LUNGx-CT033</t>
+  </si>
+  <si>
+    <t>LUNGx-CT034</t>
+  </si>
+  <si>
+    <t>LUNGx-CT035</t>
+  </si>
+  <si>
+    <t>LUNGx-CT036</t>
+  </si>
+  <si>
+    <t>LUNGx-CT037</t>
+  </si>
+  <si>
+    <t>LUNGx-CT038</t>
+  </si>
+  <si>
+    <t>LUNGx-CT039</t>
+  </si>
+  <si>
+    <t>LUNGx-CT040</t>
+  </si>
+  <si>
+    <t>LUNGx-CT041</t>
+  </si>
+  <si>
+    <t>LUNGx-CT042</t>
+  </si>
+  <si>
+    <t>LUNGx-CT043</t>
+  </si>
+  <si>
+    <t>LUNGx-CT044</t>
+  </si>
+  <si>
+    <t>LUNGx-CT045</t>
+  </si>
+  <si>
+    <t>LUNGx-CT046</t>
+  </si>
+  <si>
+    <t>LUNGx-CT047</t>
+  </si>
+  <si>
+    <t>LUNGx-CT048</t>
+  </si>
+  <si>
+    <t>LUNGx-CT049</t>
+  </si>
+  <si>
+    <t>LUNGx-CT050</t>
   </si>
 </sst>
 </file>
@@ -76,12 +235,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +256,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -104,16 +286,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -125,6 +299,14 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
@@ -143,8 +325,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -159,61 +355,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
-      <name val="Cambria"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -228,7 +380,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -243,13 +409,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,72 +559,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -339,91 +589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,13 +618,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +672,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -519,112 +724,73 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -653,7 +819,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,7 +909,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12700" y="3078480"/>
+          <a:off x="12700" y="3139440"/>
           <a:ext cx="9766300" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1054,10 +1231,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1257,45 +1434,855 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18"/>
-      <c r="B18"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19"/>
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20"/>
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21"/>
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22"/>
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23"/>
-      <c r="B23"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24"/>
-      <c r="B24"/>
+    <row r="12" ht="15.6" spans="1:5">
+      <c r="A12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="11">
+        <v>135</v>
+      </c>
+      <c r="C12" s="12">
+        <v>303</v>
+      </c>
+      <c r="D12" s="13">
+        <v>142</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="1:5">
+      <c r="A13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="11">
+        <v>330</v>
+      </c>
+      <c r="C13" s="12">
+        <v>348</v>
+      </c>
+      <c r="D13" s="13">
+        <v>205</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="15.6" spans="1:5">
+      <c r="A14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="13">
+        <v>374</v>
+      </c>
+      <c r="C14" s="12">
+        <v>374</v>
+      </c>
+      <c r="D14" s="13">
+        <v>146</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="1:5">
+      <c r="A15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="13">
+        <v>328</v>
+      </c>
+      <c r="C15" s="12">
+        <v>242</v>
+      </c>
+      <c r="D15" s="13">
+        <v>80</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="15.6" spans="1:5">
+      <c r="A16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="13">
+        <v>164</v>
+      </c>
+      <c r="C16" s="12">
+        <v>420</v>
+      </c>
+      <c r="D16" s="13">
+        <v>138</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="15.6" spans="1:5">
+      <c r="A17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="13">
+        <v>381</v>
+      </c>
+      <c r="C17" s="12">
+        <v>284</v>
+      </c>
+      <c r="D17" s="13">
+        <v>50</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" ht="15.6" spans="1:5">
+      <c r="A18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="13">
+        <v>170</v>
+      </c>
+      <c r="C18" s="12">
+        <v>355</v>
+      </c>
+      <c r="D18" s="13">
+        <v>188</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:5">
+      <c r="A19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="13">
+        <v>172</v>
+      </c>
+      <c r="C19" s="12">
+        <v>208</v>
+      </c>
+      <c r="D19" s="13">
+        <v>139</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="15.6" spans="1:5">
+      <c r="A20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="13">
+        <v>175</v>
+      </c>
+      <c r="C20" s="12">
+        <v>209</v>
+      </c>
+      <c r="D20" s="13">
+        <v>164</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="15.6" spans="1:5">
+      <c r="A21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="13">
+        <v>164</v>
+      </c>
+      <c r="C21" s="12">
+        <v>163</v>
+      </c>
+      <c r="D21" s="13">
+        <v>139</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" ht="15.6" spans="1:5">
+      <c r="A22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="13">
+        <v>179</v>
+      </c>
+      <c r="C22" s="12">
+        <v>335</v>
+      </c>
+      <c r="D22" s="13">
+        <v>56</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="15.6" spans="1:5">
+      <c r="A23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="13">
+        <v>131</v>
+      </c>
+      <c r="C23" s="12">
+        <v>360</v>
+      </c>
+      <c r="D23" s="13">
+        <v>88</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" spans="1:5">
+      <c r="A24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="13">
+        <v>373</v>
+      </c>
+      <c r="C24" s="12">
+        <v>240</v>
+      </c>
+      <c r="D24" s="13">
+        <v>91</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="15.6" spans="1:5">
+      <c r="A25" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="13">
+        <v>163</v>
+      </c>
+      <c r="C25" s="12">
+        <v>212</v>
+      </c>
+      <c r="D25" s="13">
+        <v>204</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" ht="15.6" spans="1:5">
+      <c r="A26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="13">
+        <v>353</v>
+      </c>
+      <c r="C26" s="12">
+        <v>413</v>
+      </c>
+      <c r="D26" s="13">
+        <v>124</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="15.6" spans="1:5">
+      <c r="A27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="13">
+        <v>344</v>
+      </c>
+      <c r="C27" s="12">
+        <v>358</v>
+      </c>
+      <c r="D27" s="13">
+        <v>62</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="15.6" spans="1:5">
+      <c r="A28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="13">
+        <v>354</v>
+      </c>
+      <c r="C28" s="12">
+        <v>355</v>
+      </c>
+      <c r="D28" s="13">
+        <v>178</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="1:5">
+      <c r="A29" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="13">
+        <v>116</v>
+      </c>
+      <c r="C29" s="12">
+        <v>242</v>
+      </c>
+      <c r="D29" s="13">
+        <v>137</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" ht="15.6" spans="1:5">
+      <c r="A30" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="13">
+        <v>128</v>
+      </c>
+      <c r="C30" s="12">
+        <v>362</v>
+      </c>
+      <c r="D30" s="13">
+        <v>131</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" ht="15.6" spans="1:5">
+      <c r="A31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="13">
+        <v>379</v>
+      </c>
+      <c r="C31" s="12">
+        <v>285</v>
+      </c>
+      <c r="D31" s="13">
+        <v>179</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" ht="15.6" spans="1:5">
+      <c r="A32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="13">
+        <v>296</v>
+      </c>
+      <c r="C32" s="12">
+        <v>267</v>
+      </c>
+      <c r="D32" s="13">
+        <v>76</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" ht="15.6" spans="1:5">
+      <c r="A33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="13">
+        <v>159</v>
+      </c>
+      <c r="C33" s="12">
+        <v>355</v>
+      </c>
+      <c r="D33" s="13">
+        <v>68</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" ht="15.6" spans="1:5">
+      <c r="A34" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="13">
+        <v>332</v>
+      </c>
+      <c r="C34" s="12">
+        <v>277</v>
+      </c>
+      <c r="D34" s="13">
+        <v>61</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" ht="15.6" spans="1:5">
+      <c r="A35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="13">
+        <v>107</v>
+      </c>
+      <c r="C35" s="12">
+        <v>284</v>
+      </c>
+      <c r="D35" s="13">
+        <v>197</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" ht="15.6" spans="1:5">
+      <c r="A36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="13">
+        <v>134</v>
+      </c>
+      <c r="C36" s="12">
+        <v>300</v>
+      </c>
+      <c r="D36" s="13">
+        <v>214</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" ht="15.6" spans="1:5">
+      <c r="A37" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="13">
+        <v>427</v>
+      </c>
+      <c r="C37" s="12">
+        <v>316</v>
+      </c>
+      <c r="D37" s="13">
+        <v>138</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" ht="15.6" spans="1:5">
+      <c r="A38" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="13">
+        <v>357</v>
+      </c>
+      <c r="C38" s="12">
+        <v>250</v>
+      </c>
+      <c r="D38" s="13">
+        <v>97</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" ht="15.6" spans="1:5">
+      <c r="A39" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="13">
+        <v>117</v>
+      </c>
+      <c r="C39" s="12">
+        <v>312</v>
+      </c>
+      <c r="D39" s="13">
+        <v>135</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" ht="15.6" spans="1:5">
+      <c r="A40" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="13">
+        <v>179</v>
+      </c>
+      <c r="C40" s="12">
+        <v>369</v>
+      </c>
+      <c r="D40" s="13">
+        <v>73</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" ht="15.6" spans="1:5">
+      <c r="A41" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="13">
+        <v>118</v>
+      </c>
+      <c r="C41" s="12">
+        <v>310</v>
+      </c>
+      <c r="D41" s="13">
+        <v>104</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" ht="15.6" spans="1:5">
+      <c r="A42" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="13">
+        <v>130</v>
+      </c>
+      <c r="C42" s="12">
+        <v>230</v>
+      </c>
+      <c r="D42" s="13">
+        <v>70</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" ht="15.6" spans="1:5">
+      <c r="A43" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="13">
+        <v>392</v>
+      </c>
+      <c r="C43" s="12">
+        <v>341</v>
+      </c>
+      <c r="D43" s="13">
+        <v>239</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" ht="15.6" spans="1:5">
+      <c r="A44" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="13">
+        <v>188</v>
+      </c>
+      <c r="C44" s="12">
+        <v>312</v>
+      </c>
+      <c r="D44" s="13">
+        <v>113</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" ht="15.6" spans="1:5">
+      <c r="A45" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="13">
+        <v>128</v>
+      </c>
+      <c r="C45" s="12">
+        <v>274</v>
+      </c>
+      <c r="D45" s="13">
+        <v>150</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" ht="15.6" spans="1:5">
+      <c r="A46" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="13">
+        <v>154</v>
+      </c>
+      <c r="C46" s="12">
+        <v>355</v>
+      </c>
+      <c r="D46" s="13">
+        <v>268</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" ht="15.6" spans="1:5">
+      <c r="A47" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="13">
+        <v>150</v>
+      </c>
+      <c r="C47" s="12">
+        <v>392</v>
+      </c>
+      <c r="D47" s="13">
+        <v>220</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" ht="15.6" spans="1:5">
+      <c r="A48" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="13">
+        <v>374</v>
+      </c>
+      <c r="C48" s="12">
+        <v>315</v>
+      </c>
+      <c r="D48" s="13">
+        <v>62</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" ht="15.6" spans="1:5">
+      <c r="A49" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="13">
+        <v>184</v>
+      </c>
+      <c r="C49" s="12">
+        <v>249</v>
+      </c>
+      <c r="D49" s="13">
+        <v>197</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" ht="15.6" spans="1:5">
+      <c r="A50" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="13">
+        <v>149</v>
+      </c>
+      <c r="C50" s="12">
+        <v>380</v>
+      </c>
+      <c r="D50" s="13">
+        <v>242</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" ht="15.6" spans="1:5">
+      <c r="A51" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="13">
+        <v>336</v>
+      </c>
+      <c r="C51" s="12">
+        <v>353</v>
+      </c>
+      <c r="D51" s="13">
+        <v>189</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" ht="15.6" spans="1:5">
+      <c r="A52" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="13">
+        <v>107</v>
+      </c>
+      <c r="C52" s="12">
+        <v>292</v>
+      </c>
+      <c r="D52" s="13">
+        <v>172</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" ht="15.6" spans="1:5">
+      <c r="A53" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="13">
+        <v>326</v>
+      </c>
+      <c r="C53" s="12">
+        <v>391</v>
+      </c>
+      <c r="D53" s="13">
+        <v>178</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" ht="15.6" spans="1:5">
+      <c r="A54" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="13">
+        <v>440</v>
+      </c>
+      <c r="C54" s="12">
+        <v>289</v>
+      </c>
+      <c r="D54" s="13">
+        <v>230</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" ht="15.6" spans="1:5">
+      <c r="A55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="13">
+        <v>136</v>
+      </c>
+      <c r="C55" s="12">
+        <v>298</v>
+      </c>
+      <c r="D55" s="13">
+        <v>90</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" ht="15.6" spans="1:5">
+      <c r="A56" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="13">
+        <v>314</v>
+      </c>
+      <c r="C56" s="12">
+        <v>216</v>
+      </c>
+      <c r="D56" s="13">
+        <v>148</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" ht="15.6" spans="1:5">
+      <c r="A57" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="13">
+        <v>309</v>
+      </c>
+      <c r="C57" s="12">
+        <v>211</v>
+      </c>
+      <c r="D57" s="13">
+        <v>61</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" ht="15.6" spans="1:5">
+      <c r="A58" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="13">
+        <v>199</v>
+      </c>
+      <c r="C58" s="12">
+        <v>306</v>
+      </c>
+      <c r="D58" s="13">
+        <v>53</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" ht="15.6" spans="1:5">
+      <c r="A59" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="13">
+        <v>368</v>
+      </c>
+      <c r="C59" s="12">
+        <v>312</v>
+      </c>
+      <c r="D59" s="13">
+        <v>115</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" ht="15.6" spans="1:5">
+      <c r="A60" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="13">
+        <v>398</v>
+      </c>
+      <c r="C60" s="12">
+        <v>296</v>
+      </c>
+      <c r="D60" s="13">
+        <v>71</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" ht="15.6" spans="1:5">
+      <c r="A61" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="13">
+        <v>385</v>
+      </c>
+      <c r="C61" s="12">
+        <v>316</v>
+      </c>
+      <c r="D61" s="13">
+        <v>41</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
